--- a/Excel/testcase.xlsx
+++ b/Excel/testcase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>url</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Common for all\TC_112.xaml</t>
-  </si>
-  <si>
-    <t>Common for all\TC_113.xaml</t>
   </si>
 </sst>
 </file>
@@ -401,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,11 +467,6 @@
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
